--- a/Assets/02_Scripts/Data/ExcelData/Excel/ExImporterExcel.xlsx
+++ b/Assets/02_Scripts/Data/ExcelData/Excel/ExImporterExcel.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_My\Practice\Unity\_GitHub\DefaultSettingTemplate\Assets\02_Scripts\Data\ExcelData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdsa1\OneDrive\Desktop\Unity\Project\_Github\DefaultCodeTemplate\Assets\02_Scripts\Data\ExcelData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0812A6-FB04-4C6F-B7AF-57B23B829D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A4CDA-90BD-4E9B-93BA-EC76A9FEA698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DefaultStageDataEntities" sheetId="3" r:id="rId1"/>
-    <sheet name="Save" sheetId="1" r:id="rId2"/>
+    <sheet name="Example1" sheetId="1" r:id="rId1"/>
+    <sheet name="Example2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -112,161 +112,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>hasMove</t>
-  </si>
-  <si>
     <t>Red</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stage2</t>
-  </si>
-  <si>
-    <t>Tutorial</t>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hasJump</t>
-  </si>
-  <si>
-    <t>hasDoubleJump</t>
-  </si>
-  <si>
-    <t>hasWallJump</t>
-  </si>
-  <si>
-    <t>hasDash</t>
-  </si>
-  <si>
-    <t>hasAttack</t>
-  </si>
-  <si>
-    <t>hasGrappling</t>
-  </si>
-  <si>
-    <t>Stage1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinCount</t>
-  </si>
-  <si>
-    <t>StageData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveForce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 기본 능력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 스텟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제약조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAnim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isFlip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xWalkVelocityRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#정렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotLoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groundJumpPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wallKickXJumpPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wallKickYJumpPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dashPower</t>
-  </si>
-  <si>
-    <t>dashingTime</t>
-  </si>
-  <si>
-    <t>wallSlowdownPower</t>
-  </si>
-  <si>
-    <t>fallClamp</t>
-  </si>
-  <si>
-    <t>xStopVelocityRange</t>
-  </si>
-  <si>
-    <t>Stage3</t>
-  </si>
-  <si>
-    <t>Stage4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_Star3MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal_Star2MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_Star3MS</t>
-  </si>
-  <si>
-    <t>coin_Star2MS</t>
+    <t>InGame 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#기본 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1 ,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 ,1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1 ,0.2 ,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1, 1.2 ,1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -298,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,14 +296,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFDEADA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFDEADA"/>
       </patternFill>
     </fill>
   </fills>
@@ -448,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -488,53 +417,55 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF7B7B7B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -616,9 +547,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -656,7 +587,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -762,7 +693,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -904,859 +835,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F79A47-6E48-42F0-AC72-64BAD9061AAC}">
-  <dimension ref="A1:AC15"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2"/>
-  <cols>
-    <col min="1" max="1" width="6.796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.8984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.09765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.19921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.09765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.69921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.8984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.69921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.69921875" style="22" customWidth="1"/>
-    <col min="21" max="21" width="20.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.8984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="20.296875" style="22" customWidth="1"/>
-    <col min="28" max="28" width="7.59765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.796875" style="22"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="23">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="23">
-        <v>0</v>
-      </c>
-      <c r="D3" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="29">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="29">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="23">
-        <v>20</v>
-      </c>
-      <c r="P3" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="23">
-        <v>10</v>
-      </c>
-      <c r="R3" s="24">
-        <v>600</v>
-      </c>
-      <c r="S3" s="27">
-        <v>40</v>
-      </c>
-      <c r="T3" s="27">
-        <v>30</v>
-      </c>
-      <c r="U3" s="27">
-        <v>40</v>
-      </c>
-      <c r="V3" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="W3" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="X3" s="27">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="24">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="24">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="24">
-        <v>-70</v>
-      </c>
-      <c r="AB3" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="23">
-        <v>2</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="23">
-        <v>5</v>
-      </c>
-      <c r="D4" s="29">
-        <v>27000</v>
-      </c>
-      <c r="E4" s="29">
-        <f>_xlfn.FLOOR.MATH(D4*1.5,1000)</f>
-        <v>40000</v>
-      </c>
-      <c r="F4" s="29">
-        <v>32000</v>
-      </c>
-      <c r="G4" s="29">
-        <f>_xlfn.FLOOR.MATH(F4*1.5,1000)</f>
-        <v>48000</v>
-      </c>
-      <c r="H4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="23">
-        <v>10</v>
-      </c>
-      <c r="P4" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="23">
-        <v>10</v>
-      </c>
-      <c r="R4" s="24">
-        <v>600</v>
-      </c>
-      <c r="S4" s="27">
-        <v>40</v>
-      </c>
-      <c r="T4" s="27">
-        <v>30</v>
-      </c>
-      <c r="U4" s="27">
-        <v>40</v>
-      </c>
-      <c r="V4" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="W4" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="X4" s="27">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="24">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="24">
-        <v>45</v>
-      </c>
-      <c r="AA4" s="24">
-        <v>-70</v>
-      </c>
-      <c r="AB4" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="23">
-        <v>3</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="23">
-        <v>3</v>
-      </c>
-      <c r="D5" s="29">
-        <v>26000</v>
-      </c>
-      <c r="E5" s="29">
-        <f t="shared" ref="E5:G9" si="0">_xlfn.FLOOR.MATH(D5*1.5,1000)</f>
-        <v>39000</v>
-      </c>
-      <c r="F5" s="29">
-        <v>29000</v>
-      </c>
-      <c r="G5" s="29">
-        <f t="shared" si="0"/>
-        <v>43000</v>
-      </c>
-      <c r="H5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="23">
-        <v>5</v>
-      </c>
-      <c r="P5" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>10</v>
-      </c>
-      <c r="R5" s="24">
-        <v>600</v>
-      </c>
-      <c r="S5" s="27">
-        <v>40</v>
-      </c>
-      <c r="T5" s="27">
-        <v>30</v>
-      </c>
-      <c r="U5" s="27">
-        <v>40</v>
-      </c>
-      <c r="V5" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="W5" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="X5" s="27">
-        <v>60</v>
-      </c>
-      <c r="Y5" s="24">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="24">
-        <v>45</v>
-      </c>
-      <c r="AA5" s="24">
-        <v>-70</v>
-      </c>
-      <c r="AB5" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="23">
-        <v>4</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="23">
-        <v>4</v>
-      </c>
-      <c r="D6" s="29">
-        <v>26000</v>
-      </c>
-      <c r="E6" s="29">
-        <f t="shared" si="0"/>
-        <v>39000</v>
-      </c>
-      <c r="F6" s="29">
-        <v>29000</v>
-      </c>
-      <c r="G6" s="29">
-        <f t="shared" si="0"/>
-        <v>43000</v>
-      </c>
-      <c r="H6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="23">
-        <v>5</v>
-      </c>
-      <c r="P6" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="23">
-        <v>10</v>
-      </c>
-      <c r="R6" s="24">
-        <v>600</v>
-      </c>
-      <c r="S6" s="27">
-        <v>40</v>
-      </c>
-      <c r="T6" s="27">
-        <v>30</v>
-      </c>
-      <c r="U6" s="27">
-        <v>40</v>
-      </c>
-      <c r="V6" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="W6" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="X6" s="27">
-        <v>60</v>
-      </c>
-      <c r="Y6" s="24">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="24">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="24">
-        <v>-70</v>
-      </c>
-      <c r="AB6" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="22">
-        <v>5</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="23">
-        <v>4</v>
-      </c>
-      <c r="D7" s="29">
-        <v>34000</v>
-      </c>
-      <c r="E7" s="29">
-        <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-      <c r="F7" s="29">
-        <v>35000</v>
-      </c>
-      <c r="G7" s="29">
-        <f t="shared" ref="G7" si="1">_xlfn.FLOOR.MATH(F7*1.5,1000)</f>
-        <v>52000</v>
-      </c>
-      <c r="H7" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="23">
-        <v>5</v>
-      </c>
-      <c r="P7" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="23">
-        <v>10</v>
-      </c>
-      <c r="R7" s="24">
-        <v>600</v>
-      </c>
-      <c r="S7" s="27">
-        <v>40</v>
-      </c>
-      <c r="T7" s="27">
-        <v>30</v>
-      </c>
-      <c r="U7" s="27">
-        <v>40</v>
-      </c>
-      <c r="V7" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="W7" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="X7" s="27">
-        <v>60</v>
-      </c>
-      <c r="Y7" s="24">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="24">
-        <v>45</v>
-      </c>
-      <c r="AA7" s="24">
-        <v>-70</v>
-      </c>
-      <c r="AB7" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="23">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="23">
-        <v>5</v>
-      </c>
-      <c r="D8" s="29">
-        <v>24000</v>
-      </c>
-      <c r="E8" s="29">
-        <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-      <c r="F8" s="29">
-        <v>25000</v>
-      </c>
-      <c r="G8" s="29">
-        <f t="shared" ref="G8" si="2">_xlfn.FLOOR.MATH(F8*1.5,1000)</f>
-        <v>37000</v>
-      </c>
-      <c r="H8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="23">
-        <v>5</v>
-      </c>
-      <c r="P8" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>10</v>
-      </c>
-      <c r="R8" s="24">
-        <v>600</v>
-      </c>
-      <c r="S8" s="27">
-        <v>40</v>
-      </c>
-      <c r="T8" s="27">
-        <v>30</v>
-      </c>
-      <c r="U8" s="27">
-        <v>40</v>
-      </c>
-      <c r="V8" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="W8" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="X8" s="27">
-        <v>60</v>
-      </c>
-      <c r="Y8" s="24">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="24">
-        <v>45</v>
-      </c>
-      <c r="AA8" s="24">
-        <v>-70</v>
-      </c>
-      <c r="AB8" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="22">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="23">
-        <v>5</v>
-      </c>
-      <c r="D9" s="29">
-        <v>29000</v>
-      </c>
-      <c r="E9" s="29">
-        <f t="shared" si="0"/>
-        <v>43000</v>
-      </c>
-      <c r="F9" s="29">
-        <v>30000</v>
-      </c>
-      <c r="G9" s="29">
-        <f t="shared" ref="G9" si="3">_xlfn.FLOOR.MATH(F9*1.5,1000)</f>
-        <v>45000</v>
-      </c>
-      <c r="H9" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="23">
-        <v>7</v>
-      </c>
-      <c r="P9" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>10</v>
-      </c>
-      <c r="R9" s="24">
-        <v>600</v>
-      </c>
-      <c r="S9" s="27">
-        <v>40</v>
-      </c>
-      <c r="T9" s="27">
-        <v>30</v>
-      </c>
-      <c r="U9" s="27">
-        <v>40</v>
-      </c>
-      <c r="V9" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="W9" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="X9" s="27">
-        <v>60</v>
-      </c>
-      <c r="Y9" s="24">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="24">
-        <v>45</v>
-      </c>
-      <c r="AA9" s="24">
-        <v>-70</v>
-      </c>
-      <c r="AB9" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="H3:N9 AB3:AC9" xr:uid="{1B6C5BFB-5558-4711-A7DC-ABAD85BF7651}">
-      <formula1>"FALSE,TRUE"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1777,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1816,7 +906,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>8</v>
@@ -2130,4 +1220,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F79A47-6E48-42F0-AC72-64BAD9061AAC}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.2"/>
+  <cols>
+    <col min="1" max="1" width="3.296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.8984375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="22">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A4" s="22">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="23" t="str">
+        <f>"Temp/"&amp;$B4&amp;"Prefab"</f>
+        <v>Temp/BBBPrefab</v>
+      </c>
+      <c r="G4" s="23" t="str">
+        <f>"Temp/"&amp;B4&amp;"Sprite"</f>
+        <v>Temp/BBBSprite</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="F6" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2 D3:G4 D2 D1:G1 A1:C4">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Not Load">
+      <formula>NOT(ISERROR(SEARCH("Not Load",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>